--- a/docs/testCases/firstSprint/3.TestCase-Home-Section-Partner.xlsx
+++ b/docs/testCases/firstSprint/3.TestCase-Home-Section-Partner.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_Project\docs\testCases\firstSprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_PayApi_Project\docs\testCases\firstSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654DEC5E-F3EC-4891-8D1F-C4D097E20E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952FB1FF-AD4E-4F8D-A894-91B5282AA27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8700" yWindow="4905" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -33,6 +44,9 @@
     <t>Test Case Description</t>
   </si>
   <si>
+    <t>Home section Partners Design</t>
+  </si>
+  <si>
     <t>Created By</t>
   </si>
   <si>
@@ -57,6 +71,9 @@
     <t>Test Case (Pass/Fail/Not Executed)</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>S #</t>
   </si>
   <si>
@@ -81,9 +98,15 @@
     <t>Opera One(version: 105.0.4970.21)</t>
   </si>
   <si>
+    <t>Mobile</t>
+  </si>
+  <si>
     <t>Test Scenario</t>
   </si>
   <si>
+    <t>As a visitor, I want to see a page part that includes the companies partners</t>
+  </si>
+  <si>
     <t>Step #</t>
   </si>
   <si>
@@ -99,19 +122,25 @@
     <t>Pass / Fail / Not executed / Suspended</t>
   </si>
   <si>
-    <t>Home section Partners Design</t>
-  </si>
-  <si>
     <t>Go to the web pagelink: https://stranger-team-project-61ydf6mit-jkilius-projects.vercel.app/</t>
   </si>
   <si>
     <t>This link should redirect me to main page</t>
   </si>
   <si>
-    <t>Observe design</t>
-  </si>
-  <si>
-    <t>As a visitor, I want to see a page part that includes the companies partners</t>
+    <t xml:space="preserve">as expexted </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Button "About Us"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As expexted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass </t>
   </si>
   <si>
     <t>Observe if the design is responsive</t>
@@ -120,16 +149,46 @@
     <t>Site is responsive in web, tablet and mobile.</t>
   </si>
   <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Design should meet requirements listed in Figma "Design System" part.</t>
-  </si>
-  <si>
-    <t>Button "About Us"</t>
-  </si>
-  <si>
-    <t>There should be a buuton "About Us"</t>
+    <t>Observe design icons positioning</t>
+  </si>
+  <si>
+    <t>Visitor should be able to see a section with this companies partners in correct place of secion according Figma.</t>
+  </si>
+  <si>
+    <t>Design overview</t>
+  </si>
+  <si>
+    <t>The colors, font sizes, buttons, font families and other design elements should meet the requirements listed in Figma “Design System” part.</t>
+  </si>
+  <si>
+    <t>as expexted colors,font sizes, buttons, font familles  are correct design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black partners section : 
+Moble phone: Partner icons are visible and meets design requirements: on mobile application company icons/names should appear as a 2/3 grid and bottom should be a text description. All  icons are floated some of them not in correct place acording to "Figma"design. 
+Tablet: Partner icons are visible and meets disign requirements :on tablet company icons/names should be grid 3/2 and the text description below.All  icons are floated some of them not in correct place acording to "Figma"design. 
+Web: Partner icons are visible and meets disign requirements :on web app on the left side should be text description and on the right side grid 3/2 with company names/icons.All  icons are floated some of them not in correct place acording to "Figma"design. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heading and text design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visitor should see : Heading and text should be visible with correct font size, font weight and color according to Figma. </t>
+  </si>
+  <si>
+    <t>Black partners section : 
+Moble phone: The headline and text below is floating.Headline shlould  be pushed slightly to screen left side. Text need to be fitted in correct size and should be pushed slightly to screen left side.
+Tablet: The heading and text below are floating. Is should be pushed slightly to screen left side.
+Web: Partner heading and text below  are visible and meets disign requirements. All text, font-size,font-weight ,color  are in correct place acording to "Figma"design.</t>
+  </si>
+  <si>
+    <t>Black partners section : 
+Moble phone: Button "About us" is visible with all design, font size, font weight, color. But button is incorrect place according to Figma design. The button is floating.Headline shlould  be pushed slightly to screen left side.
+Tablet: Button "About us" is visible with all design, font size, font weight, color. But button is incorrect place according to Figma design. The text and button is floating. Is should be pushed slightly to screen left side.
+Web: Button "About us" is visible with all design, font size, font weight, color. And button is in correct place according to Figma design.</t>
+  </si>
+  <si>
+    <t>There should be a buton "About Us"</t>
   </si>
 </sst>
 </file>
@@ -275,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -308,6 +367,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -322,7 +382,43 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -337,47 +433,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -660,55 +720,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="1">
         <v>3</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="23"/>
+      <c r="A2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="20"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="30" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="31" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -724,10 +784,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="34"/>
+      <c r="A4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="25"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -752,23 +812,25 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="34"/>
+      <c r="A6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="25"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="30" t="s">
+      <c r="D6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -785,145 +847,145 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="G8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="B13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>6</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="B14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="2"/>
       <c r="F14" s="9">
         <v>6</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -949,150 +1011,231 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="18" t="s">
+      <c r="A18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="B18" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>4</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>5</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>6</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
+      <c r="B25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="J6:K6"/>
+  <mergeCells count="61">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -1101,11 +1244,11 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="B9:D9"/>
@@ -1117,39 +1260,8 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/docs/testCases/firstSprint/3.TestCase-Home-Section-Partner.xlsx
+++ b/docs/testCases/firstSprint/3.TestCase-Home-Section-Partner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_PayApi_Project\docs\testCases\firstSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952FB1FF-AD4E-4F8D-A894-91B5282AA27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958FACF6-7ED8-4681-9199-51F641AD01C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="4905" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>Pass / Fail / Not executed / Suspended</t>
   </si>
   <si>
-    <t>Go to the web pagelink: https://stranger-team-project-61ydf6mit-jkilius-projects.vercel.app/</t>
-  </si>
-  <si>
     <t>This link should redirect me to main page</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>There should be a buton "About Us"</t>
+  </si>
+  <si>
+    <t>Go to the web pagelink: https://stranger-team-pay-api-project.vercel.app/</t>
   </si>
 </sst>
 </file>
@@ -382,43 +382,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -433,11 +397,47 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -723,23 +723,23 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:E24"/>
+      <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="1">
         <v>3</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
@@ -750,25 +750,25 @@
       <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="22" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="23"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -784,10 +784,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -812,25 +812,25 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="21" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="18" t="s">
+      <c r="I6" s="27"/>
+      <c r="J6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="18"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -849,22 +849,22 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -1011,60 +1011,60 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="31" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="31" t="s">
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
     </row>
     <row r="20" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="17"/>
       <c r="I20" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J20" s="16"/>
       <c r="K20" s="17"/>
@@ -1074,20 +1074,20 @@
         <v>2</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
       <c r="I21" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="17"/>
@@ -1097,15 +1097,15 @@
         <v>3</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="17"/>
@@ -1120,15 +1120,15 @@
         <v>4</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
@@ -1143,15 +1143,15 @@
         <v>5</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="17"/>
@@ -1166,20 +1166,20 @@
         <v>6</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="17"/>
       <c r="I25" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J25" s="16"/>
       <c r="K25" s="17"/>
@@ -1199,51 +1199,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:H26"/>
@@ -1260,6 +1215,51 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
